--- a/Resultado/Resultados.xlsx
+++ b/Resultado/Resultados.xlsx
@@ -462,93 +462,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2096</v>
+        <v>2107</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Funda de silicona para altavoz Bluetooth portátil JBL Charge 6, funda protectora para JBL Charge 6 Pro AI Sound Bluetooth Accesorios (negro)</t>
+          <t>Apple AirPods Pro (2ª generación) auriculares inalámbricos con carga USB-C, hasta 2 veces más auriculares Bluetooth con cancelación activa de ruido, modo de transparencia, audio adaptativo, audio</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.14</v>
+        <v>645444.66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Entrega GRATIS el vie, 21 de nov a Colombia en US$35 de artículos elegibles</t>
+          <t>No disponible</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>64560</v>
+        <v>2581778640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2094</v>
+        <v>2100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JBL Charge 4 - Altavoz Bluetooth portátil impermeable - Negro</t>
+          <t>BassBloom Roar 1 Altavoz Bluetooth portátil de viaje, sonido potente de 60 W con graves profundos, IPX6 impermeable, tiempo de reproducción 24 horas, Bluetooth 5.4, luces de fiesta RGB, emparejamiento</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114.95</v>
+        <v>260432.79</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles
-US$114.95(1 oferta nueva)</t>
+          <t>Entrega GRATIS el vie, 28 de nov a Colombia</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>459800</v>
+        <v>1041731160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2090</v>
+        <v>2105</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JBL Charge 6 - Altavoz Bluetooth portátil impermeable y a prueba de caídas, sonido profesional audaz con refuerzo de sonido AI, 28 horas de tiempo de reproducción, batería externa integrada y viene</t>
+          <t>Cubierta de cuero para la Kindle Paperwhite (11.a generación, 2021)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>129.95</v>
+        <v>62661.64</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Entrega GRATIS el sáb, 22 de nov a Colombia</t>
+          <t>No disponible</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>519800</v>
+        <v>250646560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2091</v>
+        <v>2102</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JBL Charge 6 - Altavoz Bluetooth portátil, impermeable y a prueba de caídas, sonido JBL Pro audaz con refuerzo de sonido AI, 28 horas de tiempo de reproducción, batería externa integrada y viene con</t>
+          <t>Estuche rígido de almacenamiento de viaje compatible con Logitech MX Master 4 / MX Master 3S / MX Master 3 / MX Matser 2S Advanced Mouse (grafito)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>124.75</v>
+        <v>55777.79</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles
-US$124.75(7 ofertas de artículos nuevos y usados)</t>
+          <t>Entrega GRATIS entre el 1 - 2 de dic a Colombia en US$35 (COP 130,235) de artículos elegibles</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>499000</v>
+        <v>223111160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2089</v>
+        <v>2099</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -556,122 +554,120 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>129.95</v>
+        <v>477069.41</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Entrega GRATIS el vie, 21 de nov a Colombia</t>
+          <t>Entrega GRATIS el vie, 28 de nov a Colombia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>519800</v>
+        <v>1908277640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2092</v>
+        <v>2101</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JBL Flip 6- Altavoz Bluetooth portátil, sonido potente, graves profundos, resistente al agua IPX7, 12 hs de reproducción, PartyBoost p/emparejar múltiples altavoces; p/hogar, exterior, viajes (negro)</t>
+          <t>Logitech MX Master 3S - Mouse inalámbrico Bluetooth Edition, sin receptor USB, desplazamiento ultrarrápido, Ergo, 8K DPI, pista en vidrio, clics silenciosos, funciona con Apple Mac, Windows PC, Linux</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>99.95</v>
+        <v>361011.42</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Entrega GRATIS el sáb, 22 de nov a Colombia</t>
+          <t>Entrega el sáb, 29 de nov a Colombia</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>399800</v>
+        <v>1444045680</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2093</v>
+        <v>2106</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JBL Flip 7 - Altavoz portátil impermeable y a prueba de caídas, sonido profesional audaz con refuerzo de sonido AI, 16 horas de tiempo de reproducción y sistema PushLock con accesorios intercambiables</t>
+          <t>MoKo Paquete de 2 protectores de pantalla para Kindle Paperwhite de 6.8 pulgadas (11ª generación-2023/2021) y Kindle Paperwhite Signature Edition, película protectora de PET de alta calidad</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>26009.79</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles
-US$99.00(12 ofertas de artículos nuevos y usados)</t>
+          <t>Entrega GRATIS el vie, 28 de nov a Colombia en US$35 (COP 130,235) de artículos elegibles</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>396000</v>
+        <v>104039160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2095</v>
+        <v>2104</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JBLXtreme 3: Altavoz portátil con Bluetooth, batería incorporada, función impermeable y a prueba de polvo, y carga hacia fuera - azul</t>
+          <t>SAMSUNG Galaxy Tab S9 FE+ WiFi Android Tablet, 8 GB de RAM, 128 GB de almacenamiento, S Pen incluido (versión internacional) (gris)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>177.99</v>
+        <v>1318759.61</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No hay ofertas destacadas disponibles
-US$177.99(15 ofertas de artículos nuevos y usados)</t>
+          <t>Entrega GRATIS el vie, 28 de nov a Colombia</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>711960</v>
+        <v>5275038440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2097</v>
+        <v>2103</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Monster Altavoz Bluetooth, altavoces Bluetooth portátiles inalámbricos para exteriores, estéreo inalámbrico de 60 W, IPX8 impermeable, emparejamiento dual, micrófono integrado Bluetooth 5.4, negro</t>
+          <t>Tablet Android de 10 pulgadas, 2025 la última tableta Android 13 de 128 GB ROM+16 GB de RAM (8 + 8 virtuales) + 1 TB TF Expand, potente tableta WiFi 5G Octa-Core, cámara de 13 MP+8 MP, Bluetooth,</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59.98</v>
+        <v>334852.79</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Entrega GRATIS el vie, 21 de nov a Colombia</t>
+          <t>Entrega GRATIS el vie, 28 de nov a Colombia</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>239920</v>
+        <v>1339411160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2098</v>
+        <v>2108</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Soundcore Boom 3i by Anker, Altavoz compacto para exteriores, IP68 impermeable, reproducción flotante, resistente al agua salada, BassUp 2.0, altavoz portátil de 50 W, Bluetooth 5.3, 16H, TWS, kayak</t>
+          <t>VRS Design Funda moderna para Apple Airpods Pro de 2ª generación y 1ª generación (2023/2022/2019) (piedra de arena) [patente registrada en Estados Unidos]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89.98999999999999</v>
+        <v>85545.78999999999</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Entrega GRATIS el vie, 21 de nov a Colombia</t>
+          <t>Entrega GRATIS el vie, 28 de nov a Colombia en US$35 (COP 130,235) de artículos elegibles</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>359960</v>
+        <v>342183160</v>
       </c>
     </row>
   </sheetData>
